--- a/biology/Histoire de la zoologie et de la botanique/Ikio_Satō/Ikio_Satō.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ikio_Satō/Ikio_Satō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ikio_Sat%C5%8D</t>
+          <t>Ikio_Satō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ikio Satō (佐藤井岐雄, Satō Ikio?) est un  herpétologiste japonais, né le 22 novembre 1902 à Okumyōgata-mura dans la préfecture de Gifu et mort le 11 août 1945 à Hiroshima.
 Il étudie à l’école normale supérieure d’Hiroshima puis enseigne l’histoire naturelle à la préfecture de Nagano. Il finit par venir à l’université de Hiroshima où il passe le reste de sa brève carrière. Il obtient son Doctorat of Sciences en 1941 et devient professeur assistant en 1943. Il est exposé aux rayonnements de la bombe américaine et meurt cinq jours plus tard.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ikio_Sat%C5%8D</t>
+          <t>Ikio_Satō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kraig Adler (1989), Contributions to the History of Herpetology, Society for the study of amphibians and reptiles, 202 p.  (ISBN 0-916984-19-2)</t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ikio_Sat%C5%8D</t>
+          <t>Ikio_Satō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoshio Abe
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’herpétologie   Portail du Japon                   </t>
